--- a/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
+++ b/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
   <si>
     <t>Art Type</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Scripts</t>
+  </si>
+  <si>
+    <t>LOL</t>
   </si>
 </sst>
 </file>
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,6 +1158,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
+++ b/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Art Type</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>LOL</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -694,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,6 +1166,11 @@
         <v>64</v>
       </c>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
+++ b/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Art Type</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Hallo</t>
   </si>
 </sst>
 </file>
@@ -697,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,6 +1174,11 @@
         <v>65</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
+++ b/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
   <si>
     <t>Art Type</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Hallo</t>
+  </si>
+  <si>
+    <t>Jood</t>
   </si>
 </sst>
 </file>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,6 +1182,11 @@
         <v>66</v>
       </c>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
+++ b/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
   <si>
     <t>Art Type</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Hallo</t>
+  </si>
+  <si>
+    <t>HOOOOEOEO</t>
   </si>
 </sst>
 </file>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,6 +1182,11 @@
         <v>66</v>
       </c>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
+++ b/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Art Type</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>Hallo</t>
-  </si>
-  <si>
-    <t>HOOOOEOEO</t>
   </si>
 </sst>
 </file>
@@ -703,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,11 +1179,6 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:J19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
+++ b/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
@@ -220,7 +220,7 @@
     <t>Hallo</t>
   </si>
   <si>
-    <t>Jood</t>
+    <t>Jood heil hitler</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
+++ b/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
@@ -220,7 +220,7 @@
     <t>Hallo</t>
   </si>
   <si>
-    <t>Jood heil hitler</t>
+    <t>Jood</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
+++ b/Presentatie/2. Asset List Game-Lab Voorbeeld.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Art Type</t>
   </si>
@@ -145,76 +145,10 @@
     <t>Sprint 4 (26-10 t/m 08-11)</t>
   </si>
   <si>
-    <t>Tree_001</t>
-  </si>
-  <si>
-    <t>Tree_002</t>
-  </si>
-  <si>
-    <t>Concept Art</t>
-  </si>
-  <si>
-    <t>3D Art</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>AppelBoom</t>
-  </si>
-  <si>
-    <t>Unwrap</t>
-  </si>
-  <si>
-    <t>2D Art</t>
-  </si>
-  <si>
-    <t>PeerBoom</t>
-  </si>
-  <si>
     <t>| AppelBoom | PeerBoom |</t>
   </si>
   <si>
-    <t>Voorbeel 2:</t>
-  </si>
-  <si>
-    <t>Voorbeeld 1:</t>
-  </si>
-  <si>
-    <t>Voorbeeld 3:</t>
-  </si>
-  <si>
-    <t>MainCharacter_001</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
     <t>| Sara |</t>
-  </si>
-  <si>
-    <t>Rigging</t>
-  </si>
-  <si>
-    <t>Animating</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>Particles</t>
-  </si>
-  <si>
-    <t>Scripts</t>
-  </si>
-  <si>
-    <t>LOL</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -237,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,18 +234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,14 +299,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -697,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,9 +684,6 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
@@ -776,22 +691,14 @@
         <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
@@ -803,18 +710,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="2"/>
       <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
@@ -826,18 +724,9 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5" s="17"/>
+      <c r="D5" s="2"/>
       <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
@@ -849,18 +738,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6" s="17"/>
+      <c r="D6" s="2"/>
       <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
@@ -872,10 +752,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7"/>
+      <c r="A7"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="H7" s="13" t="s">
@@ -889,18 +767,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
@@ -912,18 +782,9 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9" s="17"/>
+      <c r="D9" s="2"/>
       <c r="H9" s="15" t="s">
         <v>8</v>
       </c>
@@ -935,18 +796,9 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10" s="17"/>
+      <c r="D10" s="2"/>
       <c r="H10" s="16" t="s">
         <v>9</v>
       </c>
@@ -958,18 +810,9 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11" s="17"/>
+      <c r="D11" s="2"/>
       <c r="I11" s="4" t="s">
         <v>15</v>
       </c>
@@ -978,10 +821,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12"/>
+      <c r="A12"/>
+      <c r="B12" s="17"/>
       <c r="D12" s="2"/>
       <c r="I12" s="4" t="s">
         <v>22</v>
@@ -991,18 +832,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13" s="17"/>
+      <c r="D13" s="2"/>
       <c r="I13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1011,18 +843,9 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14" s="17"/>
+      <c r="D14" s="2"/>
       <c r="I14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1031,18 +854,9 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15" s="17"/>
+      <c r="D15" s="2"/>
       <c r="I15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1051,18 +865,9 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16" s="17"/>
+      <c r="D16" s="2"/>
       <c r="I16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1072,18 +877,9 @@
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17" s="17"/>
+      <c r="D17" s="2"/>
       <c r="I17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1092,18 +888,9 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18" s="17"/>
+      <c r="D18" s="2"/>
       <c r="I18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1113,63 +900,25 @@
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A19"/>
+      <c r="B19" s="17"/>
+      <c r="D19" s="2"/>
       <c r="I19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20" s="17"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J19"/>
